--- a/06成绩/20240716_视觉组_预赛成绩.xlsx
+++ b/06成绩/20240716_视觉组_预赛成绩.xlsx
@@ -1434,11 +1434,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1498,22 +1498,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1522,25 +1506,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1549,21 +1532,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1576,7 +1544,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1591,8 +1559,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1607,30 +1613,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1659,7 +1653,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1671,19 +1719,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1695,19 +1761,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1719,7 +1785,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1732,108 +1828,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1875,7 +1869,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1897,35 +1921,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1945,17 +1945,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1964,142 +1958,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2461,8 +2455,8 @@
   <sheetPr/>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A40" sqref="$A40:$XFD40"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
@@ -3081,19 +3075,19 @@
       <c r="E39" s="5"/>
     </row>
     <row r="40" ht="15" spans="1:5">
-      <c r="A40" s="5">
+      <c r="A40" s="6">
         <v>38</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" ht="15" spans="1:5">
       <c r="A41" s="5">
